--- a/Sebake/Automation/CLIENT INFORMATION.xlsx
+++ b/Sebake/Automation/CLIENT INFORMATION.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matsi\Desktop\gitMila\Clients\Sebake\Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matsi\Desktop\gitMILA\Sebake\Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F79E6D-5B82-4393-8FBE-241BECAEB835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593956B0-58F8-4078-8158-4DA80A3D0E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
@@ -115,17 +115,16 @@
     <t>TotalMAH</t>
   </si>
   <si>
-    <t>SAMUEL VELAPHI NKOSI</t>
-  </si>
-  <si>
-    <t>MNAKA MINING</t>
-  </si>
-  <si>
-    <t>26 MKABELA STREET, 
-KWA-THEMA</t>
-  </si>
-  <si>
-    <t>2001 / 058665 / 23</t>
+    <t>LWANDO RUGA</t>
+  </si>
+  <si>
+    <t>NODIDA INVESTMENT</t>
+  </si>
+  <si>
+    <t>105 MAKATALA HIGHWAY, GOMPO TOWN, EAST LONDON, EASTERN CAPE, 5201</t>
+  </si>
+  <si>
+    <t>2016/138853/07</t>
   </si>
 </sst>
 </file>
@@ -704,8 +703,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,7 +761,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -779,11 +778,11 @@
         <v>28</v>
       </c>
       <c r="F2">
-        <v>7104235337089</v>
+        <v>7905085675083</v>
       </c>
       <c r="G2" s="20">
         <f>Fees!F11</f>
-        <v>6177750</v>
+        <v>139804.9375</v>
       </c>
       <c r="H2" s="18">
         <f>Fees!F13</f>
@@ -791,11 +790,11 @@
       </c>
       <c r="I2" s="21">
         <f>Fees!F8</f>
-        <v>5000000</v>
+        <v>116642.5</v>
       </c>
       <c r="J2" s="21">
         <f>Fees!F9</f>
-        <v>1175000</v>
+        <v>20412.4375</v>
       </c>
       <c r="K2" s="22">
         <f>Fees!F10</f>
@@ -803,7 +802,7 @@
       </c>
       <c r="L2" s="22">
         <f>Fees!F11</f>
-        <v>6177750</v>
+        <v>139804.9375</v>
       </c>
     </row>
   </sheetData>
@@ -821,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C94BE63-8346-418D-A06D-BD58AAB9D50E}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,11 +896,11 @@
         <v>12</v>
       </c>
       <c r="F4" s="15">
-        <v>15000000</v>
-      </c>
-      <c r="I4" s="11" t="str">
+        <v>182600</v>
+      </c>
+      <c r="I4" s="11">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0.17499999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -918,7 +917,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="15">
-        <v>5000000</v>
+        <v>116642.5</v>
       </c>
       <c r="I5" s="11" t="str">
         <f t="shared" si="0"/>
@@ -940,7 +939,7 @@
       </c>
       <c r="F6" s="14">
         <f>(F4-F5)/F4</f>
-        <v>0.66666666666666663</v>
+        <v>0.36121303395399779</v>
       </c>
       <c r="I6" s="11" t="str">
         <f t="shared" si="0"/>
@@ -957,9 +956,9 @@
       <c r="C7" s="7">
         <v>0.23499999999999999</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>0.23499999999999999</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -977,7 +976,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="15">
-        <v>5000000</v>
+        <v>116642.5</v>
       </c>
       <c r="I8" s="11" t="str">
         <f t="shared" si="0"/>
@@ -999,7 +998,7 @@
       </c>
       <c r="F9" s="9">
         <f>F8*SUM(I2:I12)</f>
-        <v>1175000</v>
+        <v>20412.4375</v>
       </c>
       <c r="I9" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1042,7 +1041,7 @@
       </c>
       <c r="F11" s="12">
         <f>SUM(F8:F10)</f>
-        <v>6177750</v>
+        <v>139804.9375</v>
       </c>
       <c r="I11" s="25" t="str">
         <f t="shared" si="0"/>
@@ -1075,7 +1074,7 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F15" s="10">
         <f>F4-F11</f>
-        <v>8822250</v>
+        <v>42795.0625</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">

--- a/Sebake/Automation/CLIENT INFORMATION.xlsx
+++ b/Sebake/Automation/CLIENT INFORMATION.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matsi\Desktop\gitMILA\Sebake\Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/054ea0ef769f6bfc/Desktop/gitMila/Sebake/Sebake/Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593956B0-58F8-4078-8158-4DA80A3D0E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{593956B0-58F8-4078-8158-4DA80A3D0E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF6BD6D6-5CB2-4C66-8A2E-285A1DCC818E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
@@ -703,7 +703,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -782,7 +782,7 @@
       </c>
       <c r="G2" s="20">
         <f>Fees!F11</f>
-        <v>139804.9375</v>
+        <v>406527.5</v>
       </c>
       <c r="H2" s="18">
         <f>Fees!F13</f>
@@ -790,11 +790,11 @@
       </c>
       <c r="I2" s="21">
         <f>Fees!F8</f>
-        <v>116642.5</v>
+        <v>323022</v>
       </c>
       <c r="J2" s="21">
         <f>Fees!F9</f>
-        <v>20412.4375</v>
+        <v>80755.5</v>
       </c>
       <c r="K2" s="22">
         <f>Fees!F10</f>
@@ -802,7 +802,7 @@
       </c>
       <c r="L2" s="22">
         <f>Fees!F11</f>
-        <v>139804.9375</v>
+        <v>406527.5</v>
       </c>
     </row>
   </sheetData>
@@ -818,10 +818,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C94BE63-8346-418D-A06D-BD58AAB9D50E}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,7 +833,7 @@
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -850,7 +850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -867,7 +867,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>0.2</v>
       </c>
@@ -882,7 +882,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>0.3</v>
       </c>
@@ -896,14 +896,14 @@
         <v>12</v>
       </c>
       <c r="F4" s="15">
-        <v>182600</v>
-      </c>
-      <c r="I4" s="11">
+        <v>676650</v>
+      </c>
+      <c r="I4" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>0.17499999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>0.4</v>
       </c>
@@ -917,14 +917,14 @@
         <v>13</v>
       </c>
       <c r="F5" s="15">
-        <v>116642.5</v>
+        <v>323022</v>
       </c>
       <c r="I5" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>0.5</v>
       </c>
@@ -939,14 +939,14 @@
       </c>
       <c r="F6" s="14">
         <f>(F4-F5)/F4</f>
-        <v>0.36121303395399779</v>
-      </c>
-      <c r="I6" s="11" t="str">
+        <v>0.52261582797605854</v>
+      </c>
+      <c r="I6" s="11">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>0.6</v>
       </c>
@@ -961,7 +961,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>0.69</v>
       </c>
@@ -976,14 +976,15 @@
         <v>15</v>
       </c>
       <c r="F8" s="15">
-        <v>116642.5</v>
+        <f>F5</f>
+        <v>323022</v>
       </c>
       <c r="I8" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>0.7</v>
       </c>
@@ -997,15 +998,15 @@
         <v>16</v>
       </c>
       <c r="F9" s="9">
-        <f>F8*SUM(I2:I12)</f>
-        <v>20412.4375</v>
+        <f>F8*SUM(J2:J12)</f>
+        <v>80755.5</v>
       </c>
       <c r="I9" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>0.8</v>
       </c>
@@ -1025,8 +1026,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="26">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>0.9</v>
       </c>
@@ -1041,14 +1045,14 @@
       </c>
       <c r="F11" s="12">
         <f>SUM(F8:F10)</f>
-        <v>139804.9375</v>
+        <v>406527.5</v>
       </c>
       <c r="I11" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>1</v>
       </c>
@@ -1063,7 +1067,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>20</v>
       </c>
@@ -1071,14 +1075,23 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F15" s="10">
         <f>F4-F11</f>
-        <v>42795.0625</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+        <v>270122.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J16" s="26">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F17" s="10"/>
+      <c r="J17">
+        <f>J16*F8</f>
+        <v>3230.2200000000003</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
